--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -74,12 +74,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -92,16 +98,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -111,17 +117,14 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -144,6 +147,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -343,17 +347,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -381,10 +385,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -632,12 +636,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -924,7 +928,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -952,10 +956,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1206,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1214,8 +1218,7 @@
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1225,9 +1228,6 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -1236,9 +1236,6 @@
       <c r="B2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -1247,9 +1244,6 @@
       <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -1258,51 +1252,6 @@
       <c r="B4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,16 +1264,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.1719" style="4" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.1719" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.85156" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1334,9 +1282,6 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -1345,9 +1290,6 @@
       <c r="B2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -1356,58 +1298,6 @@
       <c r="B3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
